--- a/datamares/CLR/CLR_datamares_kelp.xlsx
+++ b/datamares/CLR/CLR_datamares_kelp.xlsx
@@ -2984,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/datamares/CLR/CLR_datamares_kelp.xlsx
+++ b/datamares/CLR/CLR_datamares_kelp.xlsx
@@ -1919,9 +1919,6 @@
     <t>Scripps Institution of Oceanography</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>The dataMares Collection contains a selection of datasets associated with specific "stories", or topics, at http://datamares.ucsd.edu. Within the landing pages for each dataset in this collection, links to the associated stories are provided under Related Resource. Likewise, links to the datasets herein are provided on the story pages at the dataMares website. Additionally, the dataMares Projects (e.g., Fisheries, Mangroves, Proyecto Manta) are represented here as subcollections, each containing a subset of the data contained within the umbrella of the dataMares Collection.
 This collection is a work in progress. Datasets will be added as they are compiled and contributed to http://datamares.ucsd.edu.</t>
   </si>
@@ -1954,6 +1951,9 @@
   </si>
   <si>
     <t>Environmental monitoring | Kelp forest ecology</t>
+  </si>
+  <si>
+    <t>2017</t>
   </si>
 </sst>
 </file>
@@ -2984,8 +2984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,7 +3064,7 @@
         <v>630</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>472</v>
@@ -3076,40 +3076,40 @@
         <v>432</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>631</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
